--- a/data/trans_bre/P15-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P15-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P15-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P15-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-17,03%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,78%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-5,08; 3,54</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 8,71</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 5,32</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-59,77; 74,38</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,89; 198,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,0; 81,14</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,54%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 2,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; 2,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 1,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 4,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,38; 85,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,84; 63,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,68; 54,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,75; 153,69</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,68%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,8; -1,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,96; 0,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,39; 0,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 4,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,98; -14,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,46; 6,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,84; 12,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,94; 89,16</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,22%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,19; -1,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,97; -0,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,46; 3,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,98; 1,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,61; -13,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,86; -9,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,4; 48,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,59; 43,88</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,53%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,1%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,97; 2,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,88; 8,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,41; 0,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,52; -1,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,66; 33,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,46; 206,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,74; 26,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -7,77</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,43%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,37; 5,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,61; 7,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 8,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 5,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,68; 113,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,2; 97,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,43; 105,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,98; 70,9</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,3%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,54%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,01%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,3; -0,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,51; 1,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 2,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 2,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,16; -15,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,51; 22,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,77; 76,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,61; 48,82</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,19%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,39%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,9; 2,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 1,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 0,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 2,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,51; 40,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,25; 84,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,02; 23,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,02; 108,18</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,03%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,88%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,16%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; -1,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,56; 0,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 0,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 1,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,0; -15,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,57; 1,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,2; 10,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,63; 22,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P15-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>10,92%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; 2,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 5,32</t>
+          <t>-4,93; 4,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,58; 19,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 81,14</t>
+          <t>-37,39; 74,83</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>37,96%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,62</t>
+          <t>-1,53; 4,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 153,69</t>
+          <t>-25,66; 152,72</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>13,71%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,63</t>
+          <t>-2,52; 4,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 89,16</t>
+          <t>-29,34; 90,05</t>
         </is>
       </c>
     </row>
@@ -925,19 +925,19 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>-4,26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-3,77</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-3,02</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-50,17%</t>
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-36,11%</t>
+          <t>-48,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-39,22%</t>
+          <t>-49,62%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -0,8</t>
+          <t>-8,61; -0,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 1,54</t>
+          <t>-9,09; 0,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,86; -9,37</t>
+          <t>-74,56; -9,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,59; 43,88</t>
+          <t>-79,83; 20,4</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-93,1%</t>
+          <t>-93,5%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,52; -1,53</t>
+          <t>-8,11; -1,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -7,77</t>
+          <t>-100,0; -13,36</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>8,78%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 5,19</t>
+          <t>-3,19; 5,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,98; 70,9</t>
+          <t>-26,91; 72,04</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,01%</t>
+          <t>-15,21%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 2,65</t>
+          <t>-6,29; 2,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-47,61; 48,82</t>
+          <t>-65,61; 34,47</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>42,64%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,53</t>
+          <t>-0,98; 3,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,02; 108,18</t>
+          <t>-23,85; 235,74</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,87%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,19</t>
+          <t>-1,36; 1,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 22,78</t>
+          <t>-20,85; 32,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P15-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 3,54</t>
+          <t>-5,43; 3,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 2,03</t>
+          <t>-8,14; 2,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 8,71</t>
+          <t>-0,7; 8,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 4,93</t>
+          <t>-4,57; 5,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,77; 74,38</t>
+          <t>-60,47; 67,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,58; 19,84</t>
+          <t>-53,54; 26,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 198,57</t>
+          <t>-13,26; 198,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,39; 74,83</t>
+          <t>-35,59; 83,13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 2,07</t>
+          <t>-3,0; 2,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 2,71</t>
+          <t>-3,71; 2,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 1,37</t>
+          <t>-3,14; 1,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 4,6</t>
+          <t>-1,43; 4,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,38; 85,43</t>
+          <t>-55,2; 76,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,84; 63,51</t>
+          <t>-46,31; 50,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,68; 54,28</t>
+          <t>-63,34; 60,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 152,72</t>
+          <t>-23,44; 149,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,8; -1,46</t>
+          <t>-9,81; -1,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 0,73</t>
+          <t>-9,75; 1,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 0,13</t>
+          <t>-6,81; -0,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 4,57</t>
+          <t>-2,56; 4,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-76,98; -14,74</t>
+          <t>-75,25; -11,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-50,46; 6,92</t>
+          <t>-50,12; 14,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-74,84; 12,55</t>
+          <t>-74,87; 5,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-29,34; 90,05</t>
+          <t>-29,8; 82,89</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,19; -1,28</t>
+          <t>-9,7; -1,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,61; -0,92</t>
+          <t>-8,65; -0,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 3,68</t>
+          <t>-5,76; 3,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 0,54</t>
+          <t>-9,73; 0,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,61; -13,34</t>
+          <t>-70,67; -16,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,56; -9,03</t>
+          <t>-73,44; -7,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,4; 48,03</t>
+          <t>-47,39; 41,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-79,83; 20,4</t>
+          <t>-79,35; 6,34</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 2,07</t>
+          <t>-9,2; 1,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 8,19</t>
+          <t>-1,8; 8,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 0,38</t>
+          <t>-6,12; 0,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,11; -1,54</t>
+          <t>-7,7; -1,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-71,66; 33,49</t>
+          <t>-72,18; 34,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 206,22</t>
+          <t>-23,77; 219,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-91,74; 26,97</t>
+          <t>-90,72; 49,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -13,36</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 5,4</t>
+          <t>-4,28; 4,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 7,45</t>
+          <t>-3,81; 7,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 8,55</t>
+          <t>-2,64; 8,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 5,2</t>
+          <t>-3,53; 5,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,68; 113,68</t>
+          <t>-46,13; 94,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 97,18</t>
+          <t>-27,73; 91,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 105,73</t>
+          <t>-20,51; 112,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 72,04</t>
+          <t>-29,47; 67,31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,3; -0,97</t>
+          <t>-6,45; -1,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 1,7</t>
+          <t>-4,53; 2,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,21</t>
+          <t>-2,22; 2,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 2,05</t>
+          <t>-5,6; 2,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-69,16; -15,78</t>
+          <t>-68,98; -14,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-39,51; 22,23</t>
+          <t>-37,95; 25,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-46,77; 76,32</t>
+          <t>-43,82; 84,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-65,61; 34,47</t>
+          <t>-60,09; 35,94</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 2,01</t>
+          <t>-2,76; 2,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,92</t>
+          <t>-1,54; 1,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,76</t>
+          <t>-3,14; 0,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 3,54</t>
+          <t>-0,9; 3,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,51; 40,82</t>
+          <t>-36,47; 39,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,25; 84,56</t>
+          <t>-39,96; 87,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-56,02; 23,16</t>
+          <t>-57,58; 19,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,85; 235,74</t>
+          <t>-23,27; 249,2</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,4; -1,08</t>
+          <t>-3,46; -1,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 0,12</t>
+          <t>-2,6; 0,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,59</t>
+          <t>-1,53; 0,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,59</t>
+          <t>-1,44; 1,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-42,0; -15,88</t>
+          <t>-42,52; -14,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 1,61</t>
+          <t>-27,97; 0,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 10,77</t>
+          <t>-23,53; 13,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 32,53</t>
+          <t>-21,17; 30,97</t>
         </is>
       </c>
     </row>
